--- a/22410196【齋藤瑠菜】DB設計.xlsx
+++ b/22410196【齋藤瑠菜】DB設計.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sai_r\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sai_r\Desktop\システム開発Ⅰ\22410196-saitouruna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F4CAE9-7624-4C44-9AC8-960AFCDA17BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F3610-F558-49D9-924A-AA5E548F5973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="282">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1257,10 +1257,6 @@
     <t>上限文字数</t>
   </si>
   <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>齋藤瑠菜</t>
     <rPh sb="0" eb="4">
       <t>サイトウルナ</t>
@@ -1315,6 +1311,21 @@
   </si>
   <si>
     <t>day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールの番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goalTable</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2002,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F96BB4-42F2-4B8D-88E3-7FDC140FB6D9}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2012,7 +2023,7 @@
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.58203125" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16.4140625" customWidth="1"/>
     <col min="6" max="6" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
@@ -2048,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -2065,7 +2076,9 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2177,26 +2190,22 @@
         <v>279</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>198</v>
+        <v>280</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="8">
-        <v>-1</v>
-      </c>
+      <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
-        <v>269</v>
-      </c>
+      <c r="L5" s="8"/>
       <c r="O5" s="8" t="s">
         <v>27</v>
       </c>
@@ -2223,17 +2232,15 @@
         <v>278</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="8">
-        <v>255</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="8" t="s">
         <v>168</v>
       </c>
@@ -2270,12 +2277,14 @@
         <v>271</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="8">
+        <v>255</v>
+      </c>
       <c r="H7" s="8" t="s">
         <v>168</v>
       </c>
@@ -2309,13 +2318,13 @@
         <v>276</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>274</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
@@ -2347,12 +2356,22 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -2379,12 +2398,11 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -5403,7 +5421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CBA093-749C-4ECD-8871-28799DA9E84E}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -6136,7 +6154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FE8449-F1C1-4082-9919-E99AE2468262}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -9471,6 +9489,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100607CFEA9279ED04E9D3ED0C5CB906D80" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="512ecd7edbafcd1ebf62fbb9f6d3da71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d287decf-c884-4834-8617-a14e3ef844bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54e415c3962f1bffb5891f93df98a945" ns2:_="">
     <xsd:import namespace="d287decf-c884-4834-8617-a14e3ef844bb"/>
@@ -9626,22 +9659,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C89C79-E5CA-40C7-A0FE-46F45731808E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d287decf-c884-4834-8617-a14e3ef844bb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C874D48E-1208-416F-8FEE-C5028C32DF92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9657,28 +9699,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C89C79-E5CA-40C7-A0FE-46F45731808E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d287decf-c884-4834-8617-a14e3ef844bb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>